--- a/docs/Responses.full.xlsx
+++ b/docs/Responses.full.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1250">
   <si>
     <t>Время ответа</t>
   </si>
@@ -2099,12 +2099,6 @@
   </si>
   <si>
     <t>Да, все те же права, что и у финнов. Есть гражданство, официально меня не могут дискриминировать</t>
-  </si>
-  <si>
-    <t>Где потеплее и хорошая работа</t>
-  </si>
-  <si>
-    <t>РФ</t>
   </si>
   <si>
     <t>корни (ингермаландцы)</t>
@@ -3798,6 +3792,9 @@
   </si>
   <si>
     <t>Мне нравится в Э =)</t>
+  </si>
+  <si>
+    <t>Где потеплее и хорошая работа. РФ</t>
   </si>
 </sst>
 </file>
@@ -3908,10 +3905,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4248,10 +4245,10 @@
   <dimension ref="A1:CO209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T111" sqref="T111"/>
+      <selection pane="bottomRight" activeCell="CO1" sqref="CO1:CR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4282,24 +4279,24 @@
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="20"/>
+      <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="19"/>
       <c r="S1" s="6" t="s">
         <v>4</v>
       </c>
@@ -4309,33 +4306,33 @@
       <c r="U1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
       <c r="AM1" s="6" t="s">
         <v>12</v>
       </c>
@@ -4345,24 +4342,24 @@
       <c r="AO1" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AP1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20" t="s">
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20" t="s">
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="BA1" s="20"/>
+      <c r="BA1" s="19"/>
       <c r="BB1" s="6" t="s">
         <v>17</v>
       </c>
@@ -4378,42 +4375,42 @@
       <c r="BF1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="BG1" s="20" t="s">
+      <c r="BG1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20" t="s">
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
+      <c r="BL1" s="19"/>
+      <c r="BM1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BN1" s="20"/>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BS1" s="20" t="s">
+      <c r="BN1" s="19"/>
+      <c r="BO1" s="19"/>
+      <c r="BP1" s="19"/>
+      <c r="BQ1" s="19"/>
+      <c r="BR1" s="19"/>
+      <c r="BS1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="BT1" s="20"/>
-      <c r="BU1" s="20"/>
-      <c r="BV1" s="20"/>
-      <c r="BW1" s="20"/>
-      <c r="BX1" s="20"/>
-      <c r="BY1" s="20"/>
-      <c r="BZ1" s="20" t="s">
+      <c r="BT1" s="19"/>
+      <c r="BU1" s="19"/>
+      <c r="BV1" s="19"/>
+      <c r="BW1" s="19"/>
+      <c r="BX1" s="19"/>
+      <c r="BY1" s="19"/>
+      <c r="BZ1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="CA1" s="20"/>
-      <c r="CB1" s="20"/>
-      <c r="CC1" s="20"/>
-      <c r="CD1" s="20"/>
-      <c r="CE1" s="20"/>
-      <c r="CF1" s="20"/>
-      <c r="CG1" s="20"/>
-      <c r="CH1" s="20"/>
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19"/>
+      <c r="CC1" s="19"/>
+      <c r="CD1" s="19"/>
+      <c r="CE1" s="19"/>
+      <c r="CF1" s="19"/>
+      <c r="CG1" s="19"/>
+      <c r="CH1" s="19"/>
       <c r="CI1" s="6" t="s">
         <v>26</v>
       </c>
@@ -4426,10 +4423,10 @@
       <c r="CL1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="CM1" s="20" t="s">
+      <c r="CM1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="CN1" s="20"/>
+      <c r="CN1" s="19"/>
     </row>
     <row r="2" spans="2:92">
       <c r="C2" s="1" t="s">
@@ -4974,70 +4971,70 @@
     </row>
     <row r="4" spans="2:92" s="1" customFormat="1"/>
     <row r="5" spans="2:92">
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
       <c r="S5" s="1" t="s">
         <v>277</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="X5" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19" t="s">
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19" t="s">
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19" t="s">
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
       <c r="AN5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AP5" s="19" t="s">
+      <c r="AP5" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19" t="s">
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19" t="s">
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="BA5" s="19"/>
+      <c r="BA5" s="20"/>
       <c r="BB5" s="1" t="s">
         <v>287</v>
       </c>
@@ -5053,108 +5050,108 @@
       <c r="BF5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BG5" s="19" t="s">
+      <c r="BG5" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="19"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="19"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
       <c r="BM5" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="19"/>
-      <c r="BP5" s="19"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="19" t="s">
+      <c r="BN5" s="20"/>
+      <c r="BO5" s="20"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="BT5" s="19"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="19"/>
-      <c r="BW5" s="19"/>
-      <c r="BX5" s="19"/>
-      <c r="BY5" s="19"/>
-      <c r="BZ5" s="19" t="s">
+      <c r="BT5" s="20"/>
+      <c r="BU5" s="20"/>
+      <c r="BV5" s="20"/>
+      <c r="BW5" s="20"/>
+      <c r="BX5" s="20"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="19"/>
-      <c r="CE5" s="19"/>
-      <c r="CF5" s="19"/>
-      <c r="CG5" s="19"/>
-      <c r="CH5" s="19"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="20"/>
+      <c r="CC5" s="20"/>
+      <c r="CD5" s="20"/>
+      <c r="CE5" s="20"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
+      <c r="CH5" s="20"/>
     </row>
     <row r="6" spans="2:92">
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
       <c r="S6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19" t="s">
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19" t="s">
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19" t="s">
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
       <c r="AN6" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AP6" s="19" t="s">
+      <c r="AP6" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19" t="s">
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19" t="s">
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="BA6" s="19"/>
+      <c r="BA6" s="20"/>
       <c r="BB6" s="1" t="s">
         <v>305</v>
       </c>
@@ -5170,105 +5167,105 @@
       <c r="BF6" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BG6" s="19" t="s">
+      <c r="BG6" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="19"/>
-      <c r="BM6" s="19" t="s">
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="BN6" s="19"/>
-      <c r="BO6" s="19"/>
-      <c r="BP6" s="19"/>
-      <c r="BQ6" s="19"/>
-      <c r="BR6" s="19"/>
-      <c r="BS6" s="19" t="s">
+      <c r="BN6" s="20"/>
+      <c r="BO6" s="20"/>
+      <c r="BP6" s="20"/>
+      <c r="BQ6" s="20"/>
+      <c r="BR6" s="20"/>
+      <c r="BS6" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="BT6" s="19"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="19"/>
-      <c r="BZ6" s="19" t="s">
+      <c r="BT6" s="20"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="20"/>
+      <c r="BW6" s="20"/>
+      <c r="BX6" s="20"/>
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="CA6" s="19"/>
-      <c r="CB6" s="19"/>
-      <c r="CC6" s="19"/>
-      <c r="CD6" s="19"/>
-      <c r="CE6" s="19"/>
-      <c r="CF6" s="19"/>
-      <c r="CG6" s="19"/>
-      <c r="CH6" s="19"/>
+      <c r="CA6" s="20"/>
+      <c r="CB6" s="20"/>
+      <c r="CC6" s="20"/>
+      <c r="CD6" s="20"/>
+      <c r="CE6" s="20"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="20"/>
+      <c r="CH6" s="20"/>
     </row>
     <row r="7" spans="2:92">
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
       <c r="U7" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="X7" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19" t="s">
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19" t="s">
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19" t="s">
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
       <c r="AN7" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AP7" s="19" t="s">
+      <c r="AP7" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19" t="s">
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19" t="s">
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="BA7" s="19"/>
+      <c r="BA7" s="20"/>
       <c r="BB7" s="1" t="s">
         <v>322</v>
       </c>
@@ -5284,101 +5281,101 @@
       <c r="BF7" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BG7" s="19" t="s">
+      <c r="BG7" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
-      <c r="BK7" s="19"/>
-      <c r="BL7" s="19"/>
-      <c r="BM7" s="19" t="s">
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
+      <c r="BM7" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="BN7" s="19"/>
-      <c r="BO7" s="19"/>
-      <c r="BP7" s="19"/>
-      <c r="BQ7" s="19"/>
-      <c r="BR7" s="19"/>
-      <c r="BS7" s="19" t="s">
+      <c r="BN7" s="20"/>
+      <c r="BO7" s="20"/>
+      <c r="BP7" s="20"/>
+      <c r="BQ7" s="20"/>
+      <c r="BR7" s="20"/>
+      <c r="BS7" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="BT7" s="19"/>
-      <c r="BU7" s="19"/>
-      <c r="BV7" s="19"/>
-      <c r="BW7" s="19"/>
-      <c r="BX7" s="19"/>
-      <c r="BY7" s="19"/>
-      <c r="BZ7" s="19" t="s">
+      <c r="BT7" s="20"/>
+      <c r="BU7" s="20"/>
+      <c r="BV7" s="20"/>
+      <c r="BW7" s="20"/>
+      <c r="BX7" s="20"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="CA7" s="19"/>
-      <c r="CB7" s="19"/>
-      <c r="CC7" s="19"/>
-      <c r="CD7" s="19"/>
-      <c r="CE7" s="19"/>
-      <c r="CF7" s="19"/>
-      <c r="CG7" s="19"/>
-      <c r="CH7" s="19"/>
+      <c r="CA7" s="20"/>
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="20"/>
+      <c r="CE7" s="20"/>
+      <c r="CF7" s="20"/>
+      <c r="CG7" s="20"/>
+      <c r="CH7" s="20"/>
     </row>
     <row r="8" spans="2:92">
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
       <c r="U8" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="X8" s="19" t="s">
+      <c r="X8" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19" t="s">
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AI8" s="19" t="s">
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AI8" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
       <c r="AN8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AP8" s="19" t="s">
+      <c r="AP8" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19" t="s">
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="20"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19" t="s">
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="BA8" s="19"/>
+      <c r="BA8" s="20"/>
       <c r="BC8" s="1" t="s">
         <v>338</v>
       </c>
@@ -5391,77 +5388,77 @@
       <c r="BF8" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="BG8" s="19" t="s">
+      <c r="BG8" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="BH8" s="19"/>
-      <c r="BI8" s="19"/>
-      <c r="BJ8" s="19"/>
-      <c r="BK8" s="19"/>
-      <c r="BL8" s="19"/>
-      <c r="BM8" s="19" t="s">
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="20"/>
+      <c r="BK8" s="20"/>
+      <c r="BL8" s="20"/>
+      <c r="BM8" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="BN8" s="19"/>
-      <c r="BO8" s="19"/>
-      <c r="BP8" s="19"/>
-      <c r="BQ8" s="19"/>
-      <c r="BR8" s="19"/>
-      <c r="BS8" s="19" t="s">
+      <c r="BN8" s="20"/>
+      <c r="BO8" s="20"/>
+      <c r="BP8" s="20"/>
+      <c r="BQ8" s="20"/>
+      <c r="BR8" s="20"/>
+      <c r="BS8" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="BT8" s="19"/>
-      <c r="BU8" s="19"/>
-      <c r="BV8" s="19"/>
-      <c r="BW8" s="19"/>
-      <c r="BX8" s="19"/>
-      <c r="BY8" s="19"/>
-      <c r="BZ8" s="19" t="s">
+      <c r="BT8" s="20"/>
+      <c r="BU8" s="20"/>
+      <c r="BV8" s="20"/>
+      <c r="BW8" s="20"/>
+      <c r="BX8" s="20"/>
+      <c r="BY8" s="20"/>
+      <c r="BZ8" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="CA8" s="19"/>
-      <c r="CB8" s="19"/>
-      <c r="CC8" s="19"/>
-      <c r="CD8" s="19"/>
-      <c r="CE8" s="19"/>
-      <c r="CF8" s="19"/>
-      <c r="CG8" s="19"/>
-      <c r="CH8" s="19"/>
+      <c r="CA8" s="20"/>
+      <c r="CB8" s="20"/>
+      <c r="CC8" s="20"/>
+      <c r="CD8" s="20"/>
+      <c r="CE8" s="20"/>
+      <c r="CF8" s="20"/>
+      <c r="CG8" s="20"/>
+      <c r="CH8" s="20"/>
     </row>
     <row r="9" spans="2:92">
       <c r="U9" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Z9" s="19" t="s">
+      <c r="Z9" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
       <c r="AN9" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AP9" s="19" t="s">
+      <c r="AP9" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19" t="s">
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19" t="s">
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="BA9" s="19"/>
+      <c r="BA9" s="20"/>
       <c r="BC9" s="1" t="s">
         <v>350</v>
       </c>
@@ -5471,42 +5468,42 @@
       <c r="BF9" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="BG9" s="19" t="s">
+      <c r="BG9" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19"/>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19" t="s">
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20"/>
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="BN9" s="19"/>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19"/>
-      <c r="BS9" s="19" t="s">
+      <c r="BN9" s="20"/>
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20"/>
+      <c r="BS9" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19"/>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19" t="s">
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20"/>
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19"/>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19"/>
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20"/>
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20"/>
     </row>
     <row r="10" spans="2:92">
       <c r="U10" s="1" t="s">
@@ -5515,24 +5512,24 @@
       <c r="AN10" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AP10" s="19" t="s">
+      <c r="AP10" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="19" t="s">
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19" t="s">
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="BA10" s="19"/>
+      <c r="BA10" s="20"/>
       <c r="BC10" s="1" t="s">
         <v>359</v>
       </c>
@@ -5542,65 +5539,65 @@
       <c r="BF10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="BS10" s="19" t="s">
+      <c r="BS10" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="BT10" s="19"/>
-      <c r="BU10" s="19"/>
-      <c r="BV10" s="19"/>
-      <c r="BW10" s="19"/>
-      <c r="BX10" s="19"/>
-      <c r="BY10" s="19"/>
+      <c r="BT10" s="20"/>
+      <c r="BU10" s="20"/>
+      <c r="BV10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
     </row>
     <row r="11" spans="2:92">
       <c r="AN11" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AP11" s="19" t="s">
+      <c r="AP11" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AZ11" s="19" t="s">
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AZ11" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="BA11" s="19"/>
+      <c r="BA11" s="20"/>
       <c r="BF11" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BS11" s="19" t="s">
+      <c r="BS11" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="BT11" s="19"/>
-      <c r="BU11" s="19"/>
-      <c r="BV11" s="19"/>
-      <c r="BW11" s="19"/>
-      <c r="BX11" s="19"/>
-      <c r="BY11" s="19"/>
+      <c r="BT11" s="20"/>
+      <c r="BU11" s="20"/>
+      <c r="BV11" s="20"/>
+      <c r="BW11" s="20"/>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="20"/>
     </row>
     <row r="12" spans="2:92">
       <c r="AN12" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AP12" s="19" t="s">
+      <c r="AP12" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AZ12" s="19" t="s">
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AZ12" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="BA12" s="19"/>
+      <c r="BA12" s="20"/>
       <c r="BF12" s="1" t="s">
         <v>369</v>
       </c>
@@ -5609,28 +5606,28 @@
       <c r="AN13" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AZ13" s="19" t="s">
+      <c r="AZ13" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="BA13" s="19"/>
+      <c r="BA13" s="20"/>
       <c r="BF13" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="14" spans="2:92">
-      <c r="AZ14" s="19" t="s">
+      <c r="AZ14" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="BA14" s="19"/>
+      <c r="BA14" s="20"/>
       <c r="BF14" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="15" spans="2:92">
-      <c r="AZ15" s="19" t="s">
+      <c r="AZ15" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="BA15" s="19"/>
+      <c r="BA15" s="20"/>
       <c r="BF15" s="1" t="s">
         <v>376</v>
       </c>
@@ -7242,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="Z24" s="1">
         <v>4</v>
@@ -7445,7 +7442,7 @@
         <v>20</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="Z25" s="1">
         <v>5</v>
@@ -7601,11 +7598,9 @@
         <v>692</v>
       </c>
       <c r="CN25" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="CO25" s="9" t="s">
-        <v>694</v>
-      </c>
+        <v>1249</v>
+      </c>
+      <c r="CO25" s="9"/>
     </row>
     <row r="26" spans="1:93" s="1" customFormat="1">
       <c r="A26" s="1">
@@ -7675,7 +7670,7 @@
         <v>22</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="Z26" s="1">
         <v>5</v>
@@ -7696,7 +7691,7 @@
         <v>3.2</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AG26" s="1">
         <v>1</v>
@@ -7825,16 +7820,16 @@
         <v>1</v>
       </c>
       <c r="CI26" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="CJ26" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="CK26" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="CJ26" s="9" t="s">
+      <c r="CL26" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="CK26" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="CL26" s="9" t="s">
-        <v>700</v>
       </c>
       <c r="CM26" s="9" t="s">
         <v>137</v>
@@ -7851,7 +7846,7 @@
         <v>379</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -7905,7 +7900,7 @@
         <v>5</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="W27" s="1">
         <v>20</v>
@@ -7914,7 +7909,7 @@
         <v>4</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="Z27" s="1">
         <v>5</v>
@@ -7953,7 +7948,7 @@
         <v>7</v>
       </c>
       <c r="AY27" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AZ27" s="1">
         <v>7</v>
@@ -8055,16 +8050,16 @@
         <v>1</v>
       </c>
       <c r="CI27" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="CJ27" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="CK27" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="CJ27" s="9" t="s">
+      <c r="CL27" s="9" t="s">
         <v>706</v>
-      </c>
-      <c r="CK27" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="CL27" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="CM27" s="9" t="s">
         <v>407</v>
@@ -8132,7 +8127,7 @@
         <v>2</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="W28" s="1">
         <v>5</v>
@@ -8141,7 +8136,7 @@
         <v>4</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="Z28" s="1">
         <v>5</v>
@@ -8276,19 +8271,19 @@
         <v>1</v>
       </c>
       <c r="CJ28" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="CK28" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="CL28" s="9" t="s">
         <v>588</v>
       </c>
       <c r="CM28" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="CN28" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="29" spans="1:93" s="1" customFormat="1">
@@ -8353,7 +8348,7 @@
         <v>2</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="W29" s="1">
         <v>5</v>
@@ -8362,7 +8357,7 @@
         <v>4</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="Z29" s="1">
         <v>5</v>
@@ -8392,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="AM29" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AN29" s="1">
         <v>1</v>
@@ -8503,22 +8498,22 @@
         <v>1</v>
       </c>
       <c r="CI29" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="CJ29" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="CK29" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="CJ29" s="9" t="s">
+      <c r="CL29" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="CK29" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="CL29" s="9" t="s">
-        <v>720</v>
-      </c>
       <c r="CM29" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="CN29" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="30" spans="1:93" s="1" customFormat="1">
@@ -8583,7 +8578,7 @@
         <v>5</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="W30" s="1">
         <v>14</v>
@@ -8592,7 +8587,7 @@
         <v>4</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="Z30" s="1">
         <v>5</v>
@@ -8625,7 +8620,7 @@
         <v>4</v>
       </c>
       <c r="AM30" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AN30" s="1">
         <v>1</v>
@@ -8640,7 +8635,7 @@
         <v>11</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="BB30" s="1">
         <v>3</v>
@@ -8712,46 +8707,46 @@
         <v>4</v>
       </c>
       <c r="BY30" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="BZ30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA30" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB30" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CD30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE30" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF30" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI30" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="CJ30" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="BZ30" s="1">
-        <v>3</v>
-      </c>
-      <c r="CA30" s="1">
-        <v>4</v>
-      </c>
-      <c r="CB30" s="1">
-        <v>4</v>
-      </c>
-      <c r="CC30" s="1">
-        <v>3</v>
-      </c>
-      <c r="CD30" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE30" s="1">
-        <v>2</v>
-      </c>
-      <c r="CF30" s="1">
-        <v>4</v>
-      </c>
-      <c r="CG30" s="1">
-        <v>3</v>
-      </c>
-      <c r="CH30" s="1">
-        <v>3</v>
-      </c>
-      <c r="CI30" s="9" t="s">
+      <c r="CK30" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="CJ30" s="9" t="s">
+      <c r="CL30" s="9" t="s">
         <v>726</v>
-      </c>
-      <c r="CK30" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="CL30" s="9" t="s">
-        <v>728</v>
       </c>
       <c r="CM30" s="9" t="s">
         <v>106</v>
@@ -8822,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="W31" s="1">
         <v>13</v>
@@ -8840,7 +8835,7 @@
         <v>5</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AG31" s="1">
         <v>1</v>
@@ -8969,16 +8964,16 @@
         <v>1</v>
       </c>
       <c r="CI31" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="CJ31" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="CK31" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="CJ31" s="9" t="s">
+      <c r="CL31" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="CK31" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="CL31" s="9" t="s">
-        <v>734</v>
       </c>
       <c r="CM31" s="9" t="s">
         <v>396</v>
@@ -9181,16 +9176,16 @@
         <v>2</v>
       </c>
       <c r="CI32" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="CJ32" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="CK32" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="CJ32" s="9" t="s">
+      <c r="CL32" s="9" t="s">
         <v>736</v>
-      </c>
-      <c r="CK32" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="CL32" s="9" t="s">
-        <v>738</v>
       </c>
       <c r="CM32" s="9" t="s">
         <v>396</v>
@@ -9258,7 +9253,7 @@
         <v>2</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="W33" s="1">
         <v>4</v>
@@ -9399,7 +9394,7 @@
         <v>156</v>
       </c>
       <c r="CM33" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="CN33" s="9" t="s">
         <v>123</v>
@@ -9467,7 +9462,7 @@
         <v>5</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="W34" s="1">
         <v>4.5</v>
@@ -9491,7 +9486,7 @@
         <v>5.5</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AG34" s="1">
         <v>1</v>
@@ -9620,22 +9615,22 @@
         <v>1</v>
       </c>
       <c r="CI34" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="CJ34" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="CK34" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="CJ34" s="9" t="s">
+      <c r="CL34" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="CK34" s="9" t="s">
+      <c r="CM34" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="CL34" s="9" t="s">
+      <c r="CN34" s="9" t="s">
         <v>746</v>
-      </c>
-      <c r="CM34" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="CN34" s="9" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:92" s="1" customFormat="1">
@@ -9745,7 +9740,7 @@
         <v>6</v>
       </c>
       <c r="AY35" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AZ35" s="1">
         <v>9</v>
@@ -9847,16 +9842,16 @@
         <v>1</v>
       </c>
       <c r="CI35" s="9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="CJ35" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="CK35" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="CL35" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="CM35" s="9"/>
     </row>
@@ -9922,7 +9917,7 @@
         <v>2</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="W36" s="1">
         <v>20</v>
@@ -10066,19 +10061,19 @@
         <v>1</v>
       </c>
       <c r="CI36" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="CJ36" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="CK36" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="CJ36" s="9" t="s">
+      <c r="CL36" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="CK36" s="9" t="s">
+      <c r="CM36" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="CL36" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="CM36" s="9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:92" s="1" customFormat="1">
@@ -10287,19 +10282,19 @@
         <v>2</v>
       </c>
       <c r="CI37" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="CJ37" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="CK37" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="CJ37" s="9" t="s">
+      <c r="CL37" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="CK37" s="9" t="s">
+      <c r="CM37" s="9" t="s">
         <v>762</v>
-      </c>
-      <c r="CL37" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="CM37" s="9" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="38" spans="1:92" s="1" customFormat="1">
@@ -10310,7 +10305,7 @@
         <v>379</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
@@ -10340,7 +10335,7 @@
         <v>4</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>141</v>
@@ -10355,7 +10350,7 @@
         <v>2</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="W38" s="1">
         <v>9</v>
@@ -10385,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AX38" s="1">
         <v>5</v>
@@ -10478,16 +10473,16 @@
         <v>418</v>
       </c>
       <c r="CJ38" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="CK38" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="CL38" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="CK38" s="9" t="s">
+      <c r="CM38" s="9" t="s">
         <v>770</v>
-      </c>
-      <c r="CL38" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="CM38" s="9" t="s">
-        <v>772</v>
       </c>
       <c r="CN38" s="9" t="s">
         <v>123</v>
@@ -10501,7 +10496,7 @@
         <v>379</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -10573,10 +10568,10 @@
         <v>1</v>
       </c>
       <c r="AM39" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AN39" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AX39" s="1">
         <v>3</v>
@@ -10645,16 +10640,16 @@
         <v>2</v>
       </c>
       <c r="CI39" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="CJ39" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="CL39" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="CJ39" s="9" t="s">
+      <c r="CM39" s="9" t="s">
         <v>776</v>
-      </c>
-      <c r="CL39" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="CM39" s="9" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:92" s="1" customFormat="1">
@@ -10665,7 +10660,7 @@
         <v>379</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E40" s="1">
         <v>4</v>
@@ -10707,7 +10702,7 @@
         <v>166</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="S40" s="1">
         <v>2</v>
@@ -10737,13 +10732,13 @@
         <v>5</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AG40" s="1">
         <v>1</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AI40" s="1">
         <v>1</v>
@@ -10869,19 +10864,19 @@
         <v>1</v>
       </c>
       <c r="CI40" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="CJ40" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="CK40" s="9" t="s">
         <v>781</v>
-      </c>
-      <c r="CJ40" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="CK40" s="9" t="s">
-        <v>783</v>
       </c>
       <c r="CL40" s="9" t="s">
         <v>156</v>
       </c>
       <c r="CM40" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:92" s="1" customFormat="1">
@@ -10955,7 +10950,7 @@
         <v>4</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="Z41" s="1">
         <v>4</v>
@@ -11105,13 +11100,13 @@
         <v>156</v>
       </c>
       <c r="CK41" s="9" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="CL41" s="9" t="s">
         <v>143</v>
       </c>
       <c r="CM41" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:92">
@@ -11213,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="AM42" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AN42" s="1">
         <v>9</v>
@@ -11303,46 +11298,46 @@
         <v>5</v>
       </c>
       <c r="BY42" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="BZ42" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA42" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB42" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC42" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD42" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF42" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG42" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH42" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI42" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="CJ42" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="BZ42" s="1">
-        <v>3</v>
-      </c>
-      <c r="CA42" s="1">
-        <v>4</v>
-      </c>
-      <c r="CB42" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC42" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD42" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE42" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF42" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG42" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH42" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI42" s="1" t="s">
+      <c r="CK42" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="CJ42" s="1" t="s">
+      <c r="CL42" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="CK42" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="CL42" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="CM42" s="1" t="s">
         <v>178</v>
@@ -11413,7 +11408,7 @@
         <v>2</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="W43" s="1">
         <v>13</v>
@@ -11422,7 +11417,7 @@
         <v>4</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="Z43" s="1">
         <v>3</v>
@@ -11455,7 +11450,7 @@
         <v>2</v>
       </c>
       <c r="AM43" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AN43" s="1">
         <v>8</v>
@@ -11476,7 +11471,7 @@
         <v>6</v>
       </c>
       <c r="AY43" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AZ43" s="1">
         <v>9</v>
@@ -11578,22 +11573,22 @@
         <v>1</v>
       </c>
       <c r="CI43" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="CJ43" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="CK43" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="CJ43" s="1" t="s">
+      <c r="CL43" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="CK43" s="1" t="s">
+      <c r="CM43" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="CL43" s="1" t="s">
+      <c r="CN43" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="CM43" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="CN43" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="44" spans="1:92">
@@ -11604,7 +11599,7 @@
         <v>379</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E44" s="1">
         <v>4</v>
@@ -11643,10 +11638,10 @@
         <v>4</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="S44" s="1">
         <v>2</v>
@@ -11658,7 +11653,7 @@
         <v>2</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="W44" s="1">
         <v>7</v>
@@ -11816,16 +11811,16 @@
         <v>2</v>
       </c>
       <c r="CI44" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="CJ44" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="CK44" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="CJ44" s="1" t="s">
+      <c r="CL44" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="CK44" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="CL44" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="CM44" s="1" t="s">
         <v>223</v>
@@ -12158,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="AM46" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AN46" s="1">
         <v>3</v>
@@ -12276,16 +12271,16 @@
         <v>1</v>
       </c>
       <c r="CI46" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="CJ46" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="CK46" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="CJ46" s="1" t="s">
+      <c r="CL46" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="CK46" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="CL46" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="CM46" s="1" t="s">
         <v>223</v>
@@ -12356,7 +12351,7 @@
         <v>2</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="W47" s="11">
         <v>7</v>
@@ -12512,19 +12507,19 @@
         <v>2</v>
       </c>
       <c r="CI47" s="13" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CJ47" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="CK47" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="CL47" s="1" t="s">
         <v>237</v>
       </c>
       <c r="CM47" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="CN47" s="1"/>
     </row>
@@ -12575,10 +12570,10 @@
         <v>4</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="S48" s="1">
         <v>1</v>
@@ -12590,7 +12585,7 @@
         <v>5</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="W48" s="11">
         <v>6</v>
@@ -12599,7 +12594,7 @@
         <v>4</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="Z48" s="1">
         <v>5</v>
@@ -12617,7 +12612,7 @@
         <v>2</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AG48" s="1">
         <v>1</v>
@@ -12636,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="AM48" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AN48" s="1">
         <v>1</v>
@@ -12754,22 +12749,22 @@
         <v>1</v>
       </c>
       <c r="CI48" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="CJ48" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="CK48" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="CJ48" s="1" t="s">
+      <c r="CL48" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="CK48" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="CL48" s="1" t="s">
-        <v>828</v>
       </c>
       <c r="CM48" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CN48" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="49" spans="1:92">
@@ -12832,7 +12827,7 @@
         <v>3</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="W49" s="11">
         <v>30</v>
@@ -12996,19 +12991,19 @@
         <v>1</v>
       </c>
       <c r="CI49" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="CJ49" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="CK49" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="CJ49" s="1" t="s">
+      <c r="CL49" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="CK49" s="1" t="s">
+      <c r="CM49" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="CL49" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="CM49" s="1" t="s">
-        <v>835</v>
       </c>
       <c r="CN49" s="1"/>
     </row>
@@ -15098,7 +15093,7 @@
         <v>2</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="W59" s="11">
         <v>22</v>
@@ -15245,13 +15240,13 @@
         <v>196</v>
       </c>
       <c r="CK59" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="CL59" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="CM59" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="CN59" s="1" t="s">
         <v>401</v>
@@ -17162,7 +17157,7 @@
         <v>2</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="W68" s="11">
         <v>22</v>
@@ -17171,7 +17166,7 @@
         <v>4</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="Z68" s="1">
         <v>5</v>
@@ -17205,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="AM68" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AN68" s="1">
         <v>1</v>
@@ -17289,46 +17284,46 @@
         <v>1</v>
       </c>
       <c r="BY68" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BZ68" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA68" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB68" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC68" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD68" s="1">
+        <v>5</v>
+      </c>
+      <c r="CE68" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF68" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG68" s="1">
+        <v>2</v>
+      </c>
+      <c r="CH68" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI68" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="CJ68" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="CK68" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="CL68" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="BZ68" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA68" s="1">
-        <v>2</v>
-      </c>
-      <c r="CB68" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC68" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD68" s="1">
-        <v>5</v>
-      </c>
-      <c r="CE68" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF68" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG68" s="1">
-        <v>2</v>
-      </c>
-      <c r="CH68" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI68" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="CJ68" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="CK68" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="CL68" s="1" t="s">
-        <v>1037</v>
       </c>
       <c r="CM68" s="1" t="s">
         <v>399</v>
@@ -17627,7 +17622,7 @@
         <v>1</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="W70" s="1">
         <v>20</v>
@@ -17651,7 +17646,7 @@
         <v>5</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AG70" s="1" t="s">
         <v>397</v>
@@ -17777,13 +17772,13 @@
         <v>1</v>
       </c>
       <c r="CI70" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="CJ70" s="1" t="s">
         <v>156</v>
       </c>
       <c r="CK70" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="CL70" s="1" t="s">
         <v>143</v>
@@ -17998,13 +17993,13 @@
         <v>1</v>
       </c>
       <c r="CI71" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="CJ71" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="CK71" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="CJ71" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="CK71" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="CL71" s="1" t="s">
         <v>156</v>
@@ -18024,7 +18019,7 @@
         <v>379</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -18228,19 +18223,19 @@
         <v>235</v>
       </c>
       <c r="CJ72" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="CK72" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="CL72" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="CK72" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="CL72" s="1" t="s">
-        <v>847</v>
       </c>
       <c r="CM72" s="1" t="s">
         <v>123</v>
       </c>
       <c r="CN72" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="73" spans="1:92" s="1" customFormat="1">
@@ -18251,7 +18246,7 @@
         <v>379</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
@@ -18314,7 +18309,7 @@
         <v>4</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="Z73" s="1">
         <v>4</v>
@@ -18443,16 +18438,16 @@
         <v>1</v>
       </c>
       <c r="CI73" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="CJ73" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="CK73" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="CJ73" s="1" t="s">
+      <c r="CL73" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="CK73" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="CL73" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="CM73" s="1" t="s">
         <v>178</v>
@@ -18469,7 +18464,7 @@
         <v>379</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
@@ -18523,7 +18518,7 @@
         <v>1</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="W74" s="1">
         <v>18</v>
@@ -18664,13 +18659,13 @@
         <v>1</v>
       </c>
       <c r="CJ74" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="CK74" s="1" t="s">
         <v>237</v>
       </c>
       <c r="CL74" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="CM74" s="1" t="s">
         <v>408</v>
@@ -18690,7 +18685,7 @@
         <v>519</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="M75" s="1">
         <v>2</v>
@@ -18714,7 +18709,7 @@
         <v>5</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="W75" s="1">
         <v>22</v>
@@ -18723,7 +18718,7 @@
         <v>4</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="Z75" s="1">
         <v>4</v>
@@ -18855,13 +18850,13 @@
         <v>572</v>
       </c>
       <c r="CK75" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="CL75" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="CM75" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="CL75" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="CM75" s="1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="76" spans="1:92" s="1" customFormat="1">
@@ -18923,7 +18918,7 @@
         <v>2</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="W76" s="1">
         <v>25</v>
@@ -19064,19 +19059,19 @@
         <v>2</v>
       </c>
       <c r="CI76" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="CJ76" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="CK76" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="CJ76" s="1" t="s">
+      <c r="CL76" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="CK76" s="1" t="s">
+      <c r="CM76" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="CL76" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="CM76" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="CN76" s="1" t="s">
         <v>680</v>
@@ -19090,7 +19085,7 @@
         <v>379</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
@@ -19141,7 +19136,7 @@
         <v>6</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="W77" s="1">
         <v>19</v>
@@ -19159,10 +19154,10 @@
         <v>5</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="AH77" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AI77" s="1">
         <v>1</v>
@@ -19177,7 +19172,7 @@
         <v>2</v>
       </c>
       <c r="AM77" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AN77" s="1">
         <v>4</v>
@@ -19189,7 +19184,7 @@
         <v>6</v>
       </c>
       <c r="AY77" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AZ77" s="1">
         <v>6</v>
@@ -19282,16 +19277,16 @@
         <v>1</v>
       </c>
       <c r="CI77" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="CJ77" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="CK77" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="CJ77" s="1" t="s">
+      <c r="CL77" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="CK77" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="CL77" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="CM77" s="1" t="s">
         <v>178</v>
@@ -19359,7 +19354,7 @@
         <v>6</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="W78" s="1">
         <v>17</v>
@@ -19485,19 +19480,19 @@
         <v>2</v>
       </c>
       <c r="CI78" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="CJ78" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="CK78" s="1" t="s">
         <v>255</v>
       </c>
       <c r="CL78" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="CM78" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="79" spans="1:92" s="1" customFormat="1">
@@ -19562,7 +19557,7 @@
         <v>2</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="W79" s="1">
         <v>21</v>
@@ -19697,13 +19692,13 @@
         <v>4</v>
       </c>
       <c r="CI79" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="CJ79" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="CK79" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="CL79" s="1" t="s">
         <v>156</v>
@@ -19924,16 +19919,16 @@
         <v>1</v>
       </c>
       <c r="CI80" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="CJ80" s="1" t="s">
         <v>156</v>
       </c>
       <c r="CK80" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="CL80" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="CM80" s="1" t="s">
         <v>446</v>
@@ -20133,16 +20128,16 @@
         <v>2</v>
       </c>
       <c r="CI81" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="CJ81" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="CK81" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="CL81" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="CJ81" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="CK81" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="CL81" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="CM81" s="1" t="s">
         <v>31</v>
@@ -20222,7 +20217,7 @@
         <v>4</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="Z82" s="1">
         <v>2</v>
@@ -20363,16 +20358,16 @@
         <v>1</v>
       </c>
       <c r="CI82" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="CJ82" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="CK82" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="CL82" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="CJ82" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="CK82" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="CL82" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="CM82" s="1" t="s">
         <v>178</v>
@@ -20449,7 +20444,7 @@
         <v>4</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="Z83" s="1">
         <v>3</v>
@@ -20470,7 +20465,7 @@
         <v>2</v>
       </c>
       <c r="AM83" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AN83" s="1">
         <v>1</v>
@@ -20560,13 +20555,13 @@
         <v>4</v>
       </c>
       <c r="CJ83" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="CK83" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="CL83" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="CK83" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="CL83" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="CM83" s="1" t="s">
         <v>178</v>
@@ -20664,7 +20659,7 @@
         <v>2</v>
       </c>
       <c r="AM84" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AN84" s="1">
         <v>1</v>
@@ -20673,7 +20668,7 @@
         <v>6</v>
       </c>
       <c r="AY84" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AZ84" s="1">
         <v>9</v>
@@ -20775,16 +20770,16 @@
         <v>1</v>
       </c>
       <c r="CI84" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="CJ84" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="CK84" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="CJ84" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="CK84" s="1" t="s">
-        <v>904</v>
-      </c>
       <c r="CL84" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="CM84" s="1" t="s">
         <v>31</v>
@@ -20864,7 +20859,7 @@
         <v>4</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="Z85" s="1">
         <v>4</v>
@@ -20999,10 +20994,10 @@
         <v>1</v>
       </c>
       <c r="CJ85" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="CK85" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="86" spans="1:92" s="1" customFormat="1">
@@ -21076,7 +21071,7 @@
         <v>4</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="Z86" s="1">
         <v>5</v>
@@ -21211,16 +21206,16 @@
         <v>2</v>
       </c>
       <c r="CI86" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="CJ86" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="CK86" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="CL86" s="9" t="s">
         <v>888</v>
-      </c>
-      <c r="CJ86" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="CK86" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="CL86" s="9" t="s">
-        <v>890</v>
       </c>
       <c r="CM86" s="9" t="s">
         <v>124</v>
@@ -21234,7 +21229,7 @@
         <v>379</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>380</v>
@@ -21324,7 +21319,7 @@
         <v>1</v>
       </c>
       <c r="AM87" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AN87" s="1">
         <v>9</v>
@@ -21432,16 +21427,16 @@
         <v>1</v>
       </c>
       <c r="CI87" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="CJ87" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="CK87" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="CJ87" s="1" t="s">
+      <c r="CL87" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="CK87" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="CL87" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="CM87" s="1" t="s">
         <v>178</v>
@@ -21458,7 +21453,7 @@
         <v>379</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>599</v>
@@ -21515,7 +21510,7 @@
         <v>2</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="W88" s="1">
         <v>13</v>
@@ -21524,7 +21519,7 @@
         <v>4</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="Z88" s="1">
         <v>3</v>
@@ -21554,7 +21549,7 @@
         <v>2</v>
       </c>
       <c r="AM88" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AN88" s="1">
         <v>8</v>
@@ -21569,7 +21564,7 @@
         <v>6</v>
       </c>
       <c r="AY88" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AZ88" s="1">
         <v>9</v>
@@ -21668,22 +21663,22 @@
         <v>1</v>
       </c>
       <c r="CI88" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="CJ88" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="CK88" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="CJ88" s="1" t="s">
+      <c r="CL88" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="CK88" s="1" t="s">
+      <c r="CM88" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="CL88" s="1" t="s">
+      <c r="CN88" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="CM88" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="CN88" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="89" spans="1:92" s="1" customFormat="1">
@@ -21694,10 +21689,10 @@
         <v>379</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E89" s="1">
         <v>4</v>
@@ -21736,10 +21731,10 @@
         <v>4</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="S89" s="1">
         <v>2</v>
@@ -21751,7 +21746,7 @@
         <v>2</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="W89" s="1">
         <v>7</v>
@@ -21895,16 +21890,16 @@
         <v>2</v>
       </c>
       <c r="CI89" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="CJ89" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="CK89" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="CJ89" s="1" t="s">
+      <c r="CL89" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="CK89" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="CL89" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="CM89" s="1" t="s">
         <v>223</v>
@@ -21918,7 +21913,7 @@
         <v>379</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>380</v>
@@ -22127,7 +22122,7 @@
         <v>379</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>166</v>
@@ -22217,7 +22212,7 @@
         <v>1</v>
       </c>
       <c r="AM91" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AN91" s="1">
         <v>3</v>
@@ -22325,16 +22320,16 @@
         <v>1</v>
       </c>
       <c r="CI91" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="CJ91" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="CK91" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="CJ91" s="1" t="s">
+      <c r="CL91" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="CK91" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="CL91" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="CM91" s="1" t="s">
         <v>223</v>
@@ -22351,7 +22346,7 @@
         <v>379</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>599</v>
@@ -22408,7 +22403,7 @@
         <v>2</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="W92" s="11">
         <v>7</v>
@@ -22549,19 +22544,19 @@
         <v>2</v>
       </c>
       <c r="CI92" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="CJ92" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="CK92" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="CL92" s="1" t="s">
         <v>237</v>
       </c>
       <c r="CM92" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="93" spans="1:92" s="1" customFormat="1">
@@ -22572,7 +22567,7 @@
         <v>379</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>381</v>
@@ -22629,7 +22624,7 @@
         <v>5</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="W93" s="11">
         <v>6</v>
@@ -22638,43 +22633,43 @@
         <v>4</v>
       </c>
       <c r="Y93" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE93" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM93" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="Z93" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA93" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB93" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC93" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD93" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE93" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="AG93" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI93" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ93" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK93" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL93" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM93" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="AN93" s="1">
         <v>1</v>
@@ -22782,22 +22777,22 @@
         <v>1</v>
       </c>
       <c r="CI93" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="CJ93" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="CK93" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="CJ93" s="1" t="s">
+      <c r="CL93" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="CK93" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="CL93" s="1" t="s">
-        <v>828</v>
       </c>
       <c r="CM93" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CN93" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="94" spans="1:92" s="1" customFormat="1">
@@ -22808,7 +22803,7 @@
         <v>379</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>215</v>
@@ -22862,7 +22857,7 @@
         <v>3</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="W94" s="11">
         <v>30</v>
@@ -23015,19 +23010,19 @@
         <v>1</v>
       </c>
       <c r="CI94" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="CJ94" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="CK94" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="CJ94" s="1" t="s">
+      <c r="CL94" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="CK94" s="1" t="s">
+      <c r="CM94" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="CL94" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="CM94" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="95" spans="1:92" s="1" customFormat="1" ht="19.2" customHeight="1">
@@ -23038,7 +23033,7 @@
         <v>379</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>380</v>
@@ -23095,7 +23090,7 @@
         <v>2</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="W95" s="1">
         <v>32</v>
@@ -23242,22 +23237,22 @@
         <v>1</v>
       </c>
       <c r="CI95" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="CJ95" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="CK95" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="CJ95" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="CK95" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="CL95" s="1" t="s">
         <v>147</v>
       </c>
       <c r="CM95" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="CN95" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="96" spans="1:92" s="1" customFormat="1">
@@ -23268,7 +23263,7 @@
         <v>379</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>599</v>
@@ -23325,7 +23320,7 @@
         <v>2</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="W96" s="11">
         <v>5</v>
@@ -23361,7 +23356,7 @@
         <v>3</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AN96" s="1">
         <v>1</v>
@@ -23469,22 +23464,22 @@
         <v>2</v>
       </c>
       <c r="CI96" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="CJ96" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="CK96" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="CJ96" s="1" t="s">
+      <c r="CL96" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="CK96" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="CL96" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="CM96" s="1" t="s">
         <v>136</v>
       </c>
       <c r="CN96" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="97" spans="1:92" s="1" customFormat="1">
@@ -23495,7 +23490,7 @@
         <v>379</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>599</v>
@@ -23537,7 +23532,7 @@
         <v>4</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>103</v>
@@ -23552,7 +23547,7 @@
         <v>5</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="W97" s="11">
         <v>10</v>
@@ -23573,7 +23568,7 @@
         <v>2</v>
       </c>
       <c r="AM97" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AN97" s="1">
         <v>1</v>
@@ -23657,7 +23652,7 @@
         <v>6</v>
       </c>
       <c r="BY97" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="BZ97" s="1">
         <v>5</v>
@@ -23684,19 +23679,19 @@
         <v>1</v>
       </c>
       <c r="CI97" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="CJ97" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="CK97" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="CJ97" s="1" t="s">
+      <c r="CL97" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="CK97" s="1" t="s">
+      <c r="CM97" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="CL97" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="CM97" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="98" spans="1:92" s="1" customFormat="1">
@@ -23707,7 +23702,7 @@
         <v>379</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>380</v>
@@ -23764,7 +23759,7 @@
         <v>4</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="W98" s="11">
         <v>7</v>
@@ -23773,7 +23768,7 @@
         <v>4</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="Z98" s="1">
         <v>5</v>
@@ -23809,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="AM98" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AN98" s="1">
         <v>1</v>
@@ -23884,7 +23879,7 @@
         <v>3</v>
       </c>
       <c r="BY98" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="BZ98" s="1">
         <v>3</v>
@@ -23914,16 +23909,16 @@
         <v>1</v>
       </c>
       <c r="CI98" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="CJ98" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="CK98" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="CJ98" s="1" t="s">
+      <c r="CL98" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="CK98" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="CL98" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="CM98" s="1" t="s">
         <v>399</v>
@@ -23937,7 +23932,7 @@
         <v>379</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
@@ -23991,7 +23986,7 @@
         <v>5</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="W99" s="11">
         <v>15</v>
@@ -24129,7 +24124,7 @@
         <v>1</v>
       </c>
       <c r="CM99" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="100" spans="1:92" s="1" customFormat="1">
@@ -24140,7 +24135,7 @@
         <v>379</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>180</v>
@@ -24182,10 +24177,10 @@
         <v>3</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="S100" s="1">
         <v>2</v>
@@ -24197,7 +24192,7 @@
         <v>2</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="W100" s="11">
         <v>6</v>
@@ -24415,7 +24410,7 @@
         <v>2</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="W101" s="1">
         <v>23</v>
@@ -24424,7 +24419,7 @@
         <v>1</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="Z101" s="1">
         <v>3</v>
@@ -24565,16 +24560,16 @@
         <v>5</v>
       </c>
       <c r="CI101" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="CJ101" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="CK101" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="CL101" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="CM101" s="1" t="s">
         <v>123</v>
@@ -24594,7 +24589,7 @@
         <v>42377</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E102" s="1">
         <v>4</v>
@@ -24648,7 +24643,7 @@
         <v>6</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="W102" s="1">
         <v>7</v>
@@ -24678,7 +24673,7 @@
         <v>3</v>
       </c>
       <c r="AM102" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AN102" s="1">
         <v>1</v>
@@ -24768,19 +24763,19 @@
         <v>1</v>
       </c>
       <c r="CI102" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="CJ102" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="CK102" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="CJ102" s="1" t="s">
+      <c r="CL102" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="CK102" s="1" t="s">
+      <c r="CM102" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="CL102" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="CM102" s="1" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="103" spans="1:92" s="1" customFormat="1">
@@ -24794,7 +24789,7 @@
         <v>42378</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -24848,7 +24843,7 @@
         <v>2</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="W103" s="1">
         <v>23</v>
@@ -24857,7 +24852,7 @@
         <v>4</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Z103" s="1">
         <v>4</v>
@@ -24890,7 +24885,7 @@
         <v>409</v>
       </c>
       <c r="AO103" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AP103" s="1">
         <v>1</v>
@@ -24998,19 +24993,19 @@
         <v>1</v>
       </c>
       <c r="CI103" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="CJ103" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="CK103" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="CJ103" s="1" t="s">
+      <c r="CL103" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="CK103" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="CL103" s="1" t="s">
-        <v>970</v>
-      </c>
       <c r="CM103" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="104" spans="1:92" s="1" customFormat="1">
@@ -25021,10 +25016,10 @@
         <v>379</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -25066,7 +25061,7 @@
         <v>268</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="S104" s="1">
         <v>2</v>
@@ -25078,7 +25073,7 @@
         <v>6</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="W104" s="11">
         <v>3.5</v>
@@ -25087,7 +25082,7 @@
         <v>4</v>
       </c>
       <c r="Y104" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="Z104" s="1">
         <v>4</v>
@@ -25192,7 +25187,7 @@
         <v>3</v>
       </c>
       <c r="BY104" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="BZ104" s="1">
         <v>3</v>
@@ -25222,16 +25217,16 @@
         <v>2</v>
       </c>
       <c r="CI104" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="CJ104" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="CK104" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="CJ104" s="1" t="s">
+      <c r="CL104" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="CK104" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="CL104" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="CM104" s="1" t="s">
         <v>178</v>
@@ -25248,10 +25243,10 @@
         <v>379</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
@@ -25290,10 +25285,10 @@
         <v>3</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="S105" s="1">
         <v>1</v>
@@ -25305,7 +25300,7 @@
         <v>5</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="W105" s="1">
         <v>9</v>
@@ -25317,7 +25312,7 @@
         <v>5</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AG105" s="1">
         <v>1</v>
@@ -25326,7 +25321,7 @@
         <v>3</v>
       </c>
       <c r="AM105" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AN105" s="1">
         <v>1</v>
@@ -25383,7 +25378,7 @@
         <v>1</v>
       </c>
       <c r="BY105" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="BZ105" s="1">
         <v>2</v>
@@ -25413,19 +25408,19 @@
         <v>2</v>
       </c>
       <c r="CI105" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="CJ105" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CK105" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="CJ105" s="1" t="s">
+      <c r="CL105" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="CK105" s="3" t="s">
+      <c r="CM105" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="CL105" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="CM105" s="1" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="106" spans="1:92" s="1" customFormat="1">
@@ -25436,10 +25431,10 @@
         <v>379</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
@@ -25502,7 +25497,7 @@
         <v>4</v>
       </c>
       <c r="Y106" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="Z106" s="1">
         <v>5</v>
@@ -25526,7 +25521,7 @@
         <v>1</v>
       </c>
       <c r="AM106" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AN106" s="1">
         <v>1</v>
@@ -25604,7 +25599,7 @@
         <v>1</v>
       </c>
       <c r="BY106" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="BZ106" s="1">
         <v>4</v>
@@ -25634,16 +25629,16 @@
         <v>1</v>
       </c>
       <c r="CI106" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="CJ106" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="CK106" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="CJ106" s="1" t="s">
+      <c r="CL106" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="CK106" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="CL106" s="1" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="107" spans="1:92" s="1" customFormat="1">
@@ -25654,7 +25649,7 @@
         <v>379</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>141</v>
@@ -25711,7 +25706,7 @@
         <v>5</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="W107" s="11">
         <v>20</v>
@@ -25720,7 +25715,7 @@
         <v>4</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="Z107" s="1">
         <v>5</v>
@@ -25831,7 +25826,7 @@
         <v>1</v>
       </c>
       <c r="BY107" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="BZ107" s="1">
         <v>4</v>
@@ -25873,10 +25868,10 @@
         <v>31</v>
       </c>
       <c r="CM107" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="CN107" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="108" spans="1:92" s="1" customFormat="1">
@@ -25887,7 +25882,7 @@
         <v>379</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>180</v>
@@ -25953,7 +25948,7 @@
         <v>4</v>
       </c>
       <c r="Y108" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="Z108" s="1">
         <v>5</v>
@@ -25980,7 +25975,7 @@
         <v>1</v>
       </c>
       <c r="AM108" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AN108" s="1">
         <v>1</v>
@@ -26186,7 +26181,7 @@
         <v>4</v>
       </c>
       <c r="AM109" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AN109" s="1">
         <v>3</v>
@@ -26288,22 +26283,22 @@
         <v>1</v>
       </c>
       <c r="CI109" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="CJ109" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="CK109" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="CL109" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="CJ109" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="CK109" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="CL109" s="1" t="s">
-        <v>1012</v>
       </c>
       <c r="CM109" s="1" t="s">
         <v>446</v>
       </c>
       <c r="CN109" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="110" spans="1:92" s="1" customFormat="1">
@@ -26407,7 +26402,7 @@
         <v>156</v>
       </c>
       <c r="AO110" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AX110" s="1">
         <v>5</v>
@@ -26515,7 +26510,7 @@
         <v>143</v>
       </c>
       <c r="CK110" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="CL110" s="1" t="s">
         <v>143</v>
@@ -26589,7 +26584,7 @@
         <v>2</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="W111" s="1">
         <v>25</v>
@@ -26742,16 +26737,16 @@
         <v>1</v>
       </c>
       <c r="CK111" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="CL111" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="CM111" s="9" t="s">
         <v>178</v>
       </c>
       <c r="CN111" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="112" spans="1:92" s="1" customFormat="1">
@@ -26762,7 +26757,7 @@
         <v>379</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E112" s="1">
         <v>2</v>
@@ -26816,7 +26811,7 @@
         <v>2</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="W112" s="1">
         <v>26</v>
@@ -26825,7 +26820,7 @@
         <v>3</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="Z112" s="1">
         <v>5</v>
@@ -26855,7 +26850,7 @@
         <v>1</v>
       </c>
       <c r="AM112" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AN112" s="1">
         <v>8</v>
@@ -26963,19 +26958,19 @@
         <v>1</v>
       </c>
       <c r="CI112" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="CJ112" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="CK112" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="CJ112" s="1" t="s">
+      <c r="CL112" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="CK112" s="1" t="s">
+      <c r="CM112" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="CL112" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="CM112" s="1" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="113" spans="1:92" s="1" customFormat="1">
@@ -27054,7 +27049,7 @@
         <v>2</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="W117" s="1">
         <v>48</v>
@@ -27195,16 +27190,16 @@
         <v>5</v>
       </c>
       <c r="CI117" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="CJ117" s="16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="CK117" s="10" t="s">
         <v>1041</v>
       </c>
-      <c r="CJ117" s="16" t="s">
+      <c r="CL117" s="10" t="s">
         <v>1042</v>
-      </c>
-      <c r="CK117" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="CL117" s="10" t="s">
-        <v>1044</v>
       </c>
       <c r="CM117" s="9" t="s">
         <v>392</v>
@@ -27284,7 +27279,7 @@
         <v>2</v>
       </c>
       <c r="Y118" s="9" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="Z118" s="1">
         <v>1</v>
@@ -27437,13 +27432,13 @@
         <v>416</v>
       </c>
       <c r="CJ118" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="CK118" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="CL118" s="10" t="s">
         <v>1046</v>
-      </c>
-      <c r="CK118" s="10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="CL118" s="10" t="s">
-        <v>1048</v>
       </c>
       <c r="CM118" s="9" t="s">
         <v>123</v>
@@ -27460,7 +27455,7 @@
         <v>385</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
@@ -27661,19 +27656,19 @@
         <v>417</v>
       </c>
       <c r="CJ119" s="16" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="CK119" s="10" t="s">
         <v>427</v>
       </c>
       <c r="CL119" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="CM119" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="CN119" s="9" t="s">
         <v>1051</v>
-      </c>
-      <c r="CM119" s="9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="CN119" s="9" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="120" spans="1:92" s="1" customFormat="1">
@@ -27723,7 +27718,7 @@
         <v>4</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="R120" s="10" t="s">
         <v>141</v>
@@ -27897,7 +27892,7 @@
         <v>176</v>
       </c>
       <c r="CK120" s="10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="CL120" s="10" t="s">
         <v>101</v>
@@ -27914,7 +27909,7 @@
         <v>385</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E121" s="1">
         <v>4</v>
@@ -27986,7 +27981,7 @@
         <v>2</v>
       </c>
       <c r="AF121" s="9" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AG121" s="9" t="s">
         <v>397</v>
@@ -28007,7 +28002,7 @@
         <v>143</v>
       </c>
       <c r="AN121" s="9" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AQ121" s="1">
         <v>2</v>
@@ -28118,22 +28113,22 @@
         <v>1</v>
       </c>
       <c r="CI121" s="16" t="s">
+        <v>1057</v>
+      </c>
+      <c r="CJ121" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="CK121" s="10" t="s">
         <v>1059</v>
       </c>
-      <c r="CJ121" s="10" t="s">
+      <c r="CL121" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="CK121" s="10" t="s">
+      <c r="CM121" s="9" t="s">
         <v>1061</v>
       </c>
-      <c r="CL121" s="10" t="s">
+      <c r="CN121" s="9" t="s">
         <v>1062</v>
-      </c>
-      <c r="CM121" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="CN121" s="9" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="122" spans="1:92" s="1" customFormat="1">
@@ -28147,7 +28142,7 @@
         <v>519</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F122" s="1">
         <v>4</v>
@@ -28183,7 +28178,7 @@
         <v>4</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="R122" s="10" t="s">
         <v>141</v>
@@ -28351,16 +28346,16 @@
         <v>2</v>
       </c>
       <c r="CI122" s="10" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="CJ122" s="10" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="CK122" s="10" t="s">
         <v>427</v>
       </c>
       <c r="CL122" s="10" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="CM122" s="9" t="s">
         <v>136</v>
@@ -28410,7 +28405,7 @@
         <v>166</v>
       </c>
       <c r="R123" s="10" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="S123" s="1">
         <v>2</v>
@@ -28557,13 +28552,13 @@
         <v>2</v>
       </c>
       <c r="CI123" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="CJ123" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="CK123" s="10" t="s">
         <v>1071</v>
-      </c>
-      <c r="CJ123" s="10" t="s">
-        <v>1072</v>
-      </c>
-      <c r="CK123" s="10" t="s">
-        <v>1073</v>
       </c>
       <c r="CL123" s="10" t="s">
         <v>101</v>
@@ -28572,7 +28567,7 @@
         <v>392</v>
       </c>
       <c r="CN123" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="124" spans="1:92" s="1" customFormat="1">
@@ -28775,16 +28770,16 @@
         <v>2</v>
       </c>
       <c r="CI124" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="CJ124" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="CK124" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="CL124" s="10" t="s">
         <v>1075</v>
-      </c>
-      <c r="CJ124" s="10" t="s">
-        <v>1075</v>
-      </c>
-      <c r="CK124" s="10" t="s">
-        <v>1076</v>
-      </c>
-      <c r="CL124" s="10" t="s">
-        <v>1077</v>
       </c>
       <c r="CM124" s="9" t="s">
         <v>178</v>
@@ -28855,7 +28850,7 @@
         <v>2</v>
       </c>
       <c r="V125" s="9" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="W125" s="1">
         <v>37</v>
@@ -28873,7 +28868,7 @@
         <v>3</v>
       </c>
       <c r="AF125" s="9" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AG125" s="1">
         <v>1</v>
@@ -28903,7 +28898,7 @@
         <v>5</v>
       </c>
       <c r="AY125" s="9" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AZ125" s="1">
         <v>1</v>
@@ -29005,22 +29000,22 @@
         <v>1</v>
       </c>
       <c r="CI125" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="CJ125" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="CK125" s="10" t="s">
         <v>1081</v>
       </c>
-      <c r="CJ125" s="10" t="s">
+      <c r="CL125" s="10" t="s">
         <v>1082</v>
-      </c>
-      <c r="CK125" s="10" t="s">
-        <v>1083</v>
-      </c>
-      <c r="CL125" s="10" t="s">
-        <v>1084</v>
       </c>
       <c r="CM125" s="9" t="s">
         <v>401</v>
       </c>
       <c r="CN125" s="9" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="126" spans="1:92" s="1" customFormat="1">
@@ -29070,7 +29065,7 @@
         <v>4</v>
       </c>
       <c r="Q126" s="10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="R126" s="10" t="s">
         <v>141</v>
@@ -29085,7 +29080,7 @@
         <v>2</v>
       </c>
       <c r="V126" s="9" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="W126" s="1">
         <v>34</v>
@@ -29121,7 +29116,7 @@
         <v>2</v>
       </c>
       <c r="AM126" s="9" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AN126" s="1">
         <v>1</v>
@@ -29223,19 +29218,19 @@
         <v>3</v>
       </c>
       <c r="CI126" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="CJ126" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CK126" s="10" t="s">
         <v>1089</v>
-      </c>
-      <c r="CJ126" s="10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="CK126" s="10" t="s">
-        <v>1091</v>
       </c>
       <c r="CL126" s="10" t="s">
         <v>433</v>
       </c>
       <c r="CM126" s="9" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="CN126" s="9" t="s">
         <v>178</v>
@@ -29446,13 +29441,13 @@
         <v>3</v>
       </c>
       <c r="CI127" s="10" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="CJ127" s="10" t="s">
         <v>176</v>
       </c>
       <c r="CK127" s="10" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="CL127" s="10" t="s">
         <v>176</v>
@@ -29681,7 +29676,7 @@
         <v>385</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E129" s="1">
         <v>3</v>
@@ -29723,7 +29718,7 @@
         <v>386</v>
       </c>
       <c r="R129" s="10" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="S129" s="1">
         <v>2</v>
@@ -29885,16 +29880,16 @@
         <v>1</v>
       </c>
       <c r="CI129" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CJ129" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CK129" s="10" t="s">
         <v>1097</v>
       </c>
-      <c r="CJ129" s="10" t="s">
+      <c r="CL129" s="10" t="s">
         <v>1098</v>
-      </c>
-      <c r="CK129" s="10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="CL129" s="10" t="s">
-        <v>1100</v>
       </c>
       <c r="CM129" s="9" t="s">
         <v>223</v>
@@ -30106,18 +30101,18 @@
         <v>1</v>
       </c>
       <c r="CI130" s="10" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="CJ130" s="10" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="CK130" s="10"/>
       <c r="CL130" s="10"/>
       <c r="CM130" s="9" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="CN130" s="9" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="131" spans="1:92" s="1" customFormat="1">
@@ -30182,7 +30177,7 @@
         <v>2</v>
       </c>
       <c r="V131" s="9" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="W131" s="10">
         <v>40</v>
@@ -30333,16 +30328,16 @@
         <v>1</v>
       </c>
       <c r="CI131" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="CJ131" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="CK131" s="10" t="s">
         <v>1106</v>
       </c>
-      <c r="CJ131" s="10" t="s">
+      <c r="CL131" s="10" t="s">
         <v>1107</v>
-      </c>
-      <c r="CK131" s="10" t="s">
-        <v>1108</v>
-      </c>
-      <c r="CL131" s="10" t="s">
-        <v>1109</v>
       </c>
       <c r="CM131" s="9" t="s">
         <v>223</v>
@@ -30401,7 +30396,7 @@
         <v>166</v>
       </c>
       <c r="R132" s="10" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="S132" s="1">
         <v>2</v>
@@ -30557,16 +30552,16 @@
         <v>1</v>
       </c>
       <c r="CI132" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CJ132" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="CK132" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="CL132" s="10" t="s">
         <v>1111</v>
-      </c>
-      <c r="CJ132" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="CK132" s="10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="CL132" s="10" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="133" spans="1:92" s="1" customFormat="1">
@@ -30640,7 +30635,7 @@
         <v>4</v>
       </c>
       <c r="Y133" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Z133" s="10"/>
       <c r="AA133" s="10">
@@ -30776,14 +30771,14 @@
       </c>
       <c r="CI133" s="10"/>
       <c r="CJ133" s="10" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="CK133" s="10" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="CL133" s="10"/>
       <c r="CM133" s="9" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="134" spans="1:92" s="1" customFormat="1">
@@ -30968,7 +30963,7 @@
       <c r="CJ134" s="10"/>
       <c r="CK134" s="10"/>
       <c r="CL134" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="135" spans="1:92" s="1" customFormat="1">
@@ -31182,13 +31177,13 @@
       </c>
       <c r="CI135" s="10"/>
       <c r="CJ135" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="CK135" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="CL135" s="10" t="s">
         <v>1119</v>
-      </c>
-      <c r="CK135" s="10" t="s">
-        <v>1120</v>
-      </c>
-      <c r="CL135" s="10" t="s">
-        <v>1121</v>
       </c>
       <c r="CM135" s="9" t="s">
         <v>136</v>
@@ -31205,7 +31200,7 @@
         <v>385</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -31296,7 +31291,7 @@
         <v>3</v>
       </c>
       <c r="AM136" s="9" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="AN136" s="1">
         <v>1</v>
@@ -31404,16 +31399,16 @@
         <v>1</v>
       </c>
       <c r="CI136" s="10" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="CJ136" s="10" t="s">
         <v>417</v>
       </c>
       <c r="CK136" s="10" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="CL136" s="10" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="CM136" s="1" t="s">
         <v>136</v>
@@ -31430,7 +31425,7 @@
         <v>385</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E137" s="1">
         <v>3</v>
@@ -31626,22 +31621,22 @@
         <v>2</v>
       </c>
       <c r="CI137" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="CJ137" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="CK137" s="10" t="s">
         <v>1128</v>
       </c>
-      <c r="CJ137" s="10" t="s">
+      <c r="CL137" s="10" t="s">
         <v>1129</v>
       </c>
-      <c r="CK137" s="10" t="s">
+      <c r="CM137" s="9" t="s">
         <v>1130</v>
       </c>
-      <c r="CL137" s="10" t="s">
+      <c r="CN137" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="CM137" s="9" t="s">
-        <v>1132</v>
-      </c>
-      <c r="CN137" s="1" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="138" spans="1:92" s="1" customFormat="1">
@@ -31691,7 +31686,7 @@
         <v>4</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="R138" s="10" t="s">
         <v>141</v>
@@ -31715,7 +31710,7 @@
         <v>4</v>
       </c>
       <c r="Y138" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="Z138" s="10">
         <v>1</v>
@@ -31855,16 +31850,16 @@
         <v>3</v>
       </c>
       <c r="CI138" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="CJ138" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="CK138" s="10" t="s">
         <v>1136</v>
       </c>
-      <c r="CJ138" s="10" t="s">
+      <c r="CL138" s="10" t="s">
         <v>1137</v>
-      </c>
-      <c r="CK138" s="10" t="s">
-        <v>1138</v>
-      </c>
-      <c r="CL138" s="10" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="139" spans="1:92" s="1" customFormat="1">
@@ -31951,7 +31946,7 @@
         <v>3</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AG139" s="10">
         <v>1</v>
@@ -32081,7 +32076,7 @@
         <v>101</v>
       </c>
       <c r="CK139" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="CL139" s="10" t="s">
         <v>101</v>
@@ -32291,19 +32286,19 @@
         <v>418</v>
       </c>
       <c r="CJ140" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="CK140" s="10" t="s">
         <v>428</v>
       </c>
       <c r="CL140" s="10" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="CM140" s="1" t="s">
         <v>178</v>
       </c>
       <c r="CN140" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="141" spans="1:92" s="1" customFormat="1">
@@ -32377,7 +32372,7 @@
         <v>4</v>
       </c>
       <c r="Y141" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="Z141" s="10"/>
       <c r="AA141" s="10">
@@ -32495,16 +32490,16 @@
         <v>2</v>
       </c>
       <c r="CI141" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="CJ141" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="CK141" s="10" t="s">
         <v>1146</v>
       </c>
-      <c r="CJ141" s="10" t="s">
+      <c r="CL141" s="10" t="s">
         <v>1147</v>
-      </c>
-      <c r="CK141" s="10" t="s">
-        <v>1148</v>
-      </c>
-      <c r="CL141" s="10" t="s">
-        <v>1149</v>
       </c>
       <c r="CM141" s="9" t="s">
         <v>106</v>
@@ -32606,7 +32601,7 @@
         <v>1</v>
       </c>
       <c r="AM142" s="9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AN142" s="1">
         <v>1</v>
@@ -32717,22 +32712,22 @@
         <v>1</v>
       </c>
       <c r="CI142" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="CJ142" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="CK142" s="10" t="s">
         <v>1151</v>
       </c>
-      <c r="CJ142" s="10" t="s">
+      <c r="CL142" s="10" t="s">
         <v>1152</v>
       </c>
-      <c r="CK142" s="10" t="s">
+      <c r="CM142" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="CL142" s="10" t="s">
+      <c r="CN142" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="CM142" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="CN142" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="143" spans="1:92" s="1" customFormat="1">
@@ -32944,13 +32939,13 @@
         <v>2</v>
       </c>
       <c r="CI143" s="10" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="CJ143" s="10" t="s">
         <v>176</v>
       </c>
       <c r="CK143" s="10" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="CL143" s="10" t="s">
         <v>176</v>
@@ -33021,7 +33016,7 @@
         <v>2</v>
       </c>
       <c r="V144" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="W144" s="10">
         <v>44</v>
@@ -33165,19 +33160,19 @@
         <v>1</v>
       </c>
       <c r="CI144" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CJ144" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="CK144" s="10" t="s">
         <v>1160</v>
       </c>
-      <c r="CJ144" s="10" t="s">
+      <c r="CL144" s="10" t="s">
         <v>1161</v>
       </c>
-      <c r="CK144" s="10" t="s">
+      <c r="CM144" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="CL144" s="10" t="s">
-        <v>1163</v>
-      </c>
-      <c r="CM144" s="1" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="145" spans="1:92" s="1" customFormat="1">
@@ -33188,7 +33183,7 @@
         <v>385</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E145" s="1">
         <v>2</v>
@@ -33360,49 +33355,49 @@
         <v>7</v>
       </c>
       <c r="BY145" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BZ145" s="11">
+        <v>4</v>
+      </c>
+      <c r="CA145" s="11">
+        <v>4</v>
+      </c>
+      <c r="CB145" s="11">
+        <v>4</v>
+      </c>
+      <c r="CC145" s="11">
+        <v>3</v>
+      </c>
+      <c r="CD145" s="11">
+        <v>4</v>
+      </c>
+      <c r="CE145" s="11">
+        <v>2</v>
+      </c>
+      <c r="CF145" s="11">
+        <v>2</v>
+      </c>
+      <c r="CG145" s="11">
+        <v>3</v>
+      </c>
+      <c r="CH145" s="11">
+        <v>3</v>
+      </c>
+      <c r="CI145" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="CJ145" s="10" t="s">
         <v>1165</v>
       </c>
-      <c r="BZ145" s="11">
-        <v>4</v>
-      </c>
-      <c r="CA145" s="11">
-        <v>4</v>
-      </c>
-      <c r="CB145" s="11">
-        <v>4</v>
-      </c>
-      <c r="CC145" s="11">
-        <v>3</v>
-      </c>
-      <c r="CD145" s="11">
-        <v>4</v>
-      </c>
-      <c r="CE145" s="11">
-        <v>2</v>
-      </c>
-      <c r="CF145" s="11">
-        <v>2</v>
-      </c>
-      <c r="CG145" s="11">
-        <v>3</v>
-      </c>
-      <c r="CH145" s="11">
-        <v>3</v>
-      </c>
-      <c r="CI145" s="10" t="s">
+      <c r="CK145" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="CJ145" s="10" t="s">
+      <c r="CL145" s="10" t="s">
         <v>1167</v>
       </c>
-      <c r="CK145" s="10" t="s">
+      <c r="CM145" s="9" t="s">
         <v>1168</v>
-      </c>
-      <c r="CL145" s="10" t="s">
-        <v>1169</v>
-      </c>
-      <c r="CM145" s="9" t="s">
-        <v>1170</v>
       </c>
       <c r="CN145" s="9" t="s">
         <v>178</v>
@@ -33416,7 +33411,7 @@
         <v>385</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E146" s="1">
         <v>4</v>
@@ -33458,7 +33453,7 @@
         <v>387</v>
       </c>
       <c r="R146" s="10" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="S146" s="1">
         <v>1</v>
@@ -33470,7 +33465,7 @@
         <v>5</v>
       </c>
       <c r="V146" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="W146" s="10">
         <v>39</v>
@@ -33491,7 +33486,7 @@
         <v>3</v>
       </c>
       <c r="AH146" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AI146" s="1">
         <v>2</v>
@@ -33602,19 +33597,19 @@
         <v>1</v>
       </c>
       <c r="CI146" s="10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="CJ146" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="CK146" s="10" t="s">
         <v>1175</v>
       </c>
-      <c r="CJ146" s="10" t="s">
+      <c r="CL146" s="10" t="s">
         <v>1176</v>
       </c>
-      <c r="CK146" s="10" t="s">
-        <v>1177</v>
-      </c>
-      <c r="CL146" s="10" t="s">
-        <v>1178</v>
-      </c>
       <c r="CM146" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="CN146" s="9" t="s">
         <v>106</v>
@@ -33711,7 +33706,7 @@
         <v>4</v>
       </c>
       <c r="AM147" s="9" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AN147" s="1">
         <v>1</v>
@@ -33822,19 +33817,19 @@
         <v>4</v>
       </c>
       <c r="CI147" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="CJ147" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="CK147" s="10" t="s">
         <v>1180</v>
       </c>
-      <c r="CJ147" s="10" t="s">
+      <c r="CL147" s="10" t="s">
         <v>1181</v>
       </c>
-      <c r="CK147" s="10" t="s">
-        <v>1182</v>
-      </c>
-      <c r="CL147" s="10" t="s">
-        <v>1183</v>
-      </c>
       <c r="CM147" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="CN147" s="9" t="s">
         <v>178</v>
@@ -34056,16 +34051,16 @@
         <v>3</v>
       </c>
       <c r="CI148" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="CJ148" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="CK148" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="CJ148" s="10" t="s">
+      <c r="CL148" s="10" t="s">
         <v>1185</v>
-      </c>
-      <c r="CK148" s="10" t="s">
-        <v>1186</v>
-      </c>
-      <c r="CL148" s="10" t="s">
-        <v>1187</v>
       </c>
       <c r="CM148" s="9" t="s">
         <v>223</v>
@@ -34079,7 +34074,7 @@
         <v>385</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E149" s="1">
         <v>3</v>
@@ -34142,7 +34137,7 @@
         <v>4</v>
       </c>
       <c r="Y149" s="9" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="Z149" s="10">
         <v>2</v>
@@ -34293,16 +34288,16 @@
         <v>417</v>
       </c>
       <c r="CJ149" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="CK149" s="10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="CL149" s="10" t="s">
         <v>1190</v>
       </c>
-      <c r="CK149" s="10" t="s">
+      <c r="CM149" s="9" t="s">
         <v>1191</v>
-      </c>
-      <c r="CL149" s="10" t="s">
-        <v>1192</v>
-      </c>
-      <c r="CM149" s="9" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="150" spans="1:92" s="1" customFormat="1">
@@ -34376,7 +34371,7 @@
         <v>4</v>
       </c>
       <c r="Y150" s="9" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="Z150" s="10"/>
       <c r="AA150" s="10">
@@ -34512,22 +34507,22 @@
         <v>2</v>
       </c>
       <c r="CI150" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="CJ150" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="CK150" s="10" t="s">
         <v>1195</v>
       </c>
-      <c r="CJ150" s="10" t="s">
+      <c r="CL150" s="10" t="s">
         <v>1196</v>
-      </c>
-      <c r="CK150" s="10" t="s">
-        <v>1197</v>
-      </c>
-      <c r="CL150" s="10" t="s">
-        <v>1198</v>
       </c>
       <c r="CM150" s="9" t="s">
         <v>396</v>
       </c>
       <c r="CN150" s="9" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="151" spans="1:92" s="1" customFormat="1">
@@ -34538,7 +34533,7 @@
         <v>385</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E151" s="1">
         <v>4</v>
@@ -34626,7 +34621,7 @@
         <v>3</v>
       </c>
       <c r="AM151" s="9" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AN151" s="1">
         <v>1</v>
@@ -34737,22 +34732,22 @@
         <v>1</v>
       </c>
       <c r="CI151" s="10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="CJ151" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="CK151" s="10" t="s">
         <v>1202</v>
       </c>
-      <c r="CJ151" s="10" t="s">
+      <c r="CL151" s="10" t="s">
         <v>1203</v>
       </c>
-      <c r="CK151" s="10" t="s">
+      <c r="CM151" s="17" t="s">
         <v>1204</v>
       </c>
-      <c r="CL151" s="10" t="s">
+      <c r="CN151" s="17" t="s">
         <v>1205</v>
-      </c>
-      <c r="CM151" s="17" t="s">
-        <v>1206</v>
-      </c>
-      <c r="CN151" s="17" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="152" spans="1:92" s="1" customFormat="1">
@@ -34817,7 +34812,7 @@
         <v>2</v>
       </c>
       <c r="V152" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="W152" s="10">
         <v>54</v>
@@ -34839,7 +34834,7 @@
         <v>3</v>
       </c>
       <c r="AF152" s="9" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="AG152" s="10">
         <v>1</v>
@@ -34968,16 +34963,16 @@
         <v>1</v>
       </c>
       <c r="CI152" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="CJ152" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="CK152" s="10" t="s">
         <v>1210</v>
       </c>
-      <c r="CJ152" s="10" t="s">
+      <c r="CL152" s="10" t="s">
         <v>1211</v>
-      </c>
-      <c r="CK152" s="10" t="s">
-        <v>1212</v>
-      </c>
-      <c r="CL152" s="10" t="s">
-        <v>1213</v>
       </c>
       <c r="CM152" s="9" t="s">
         <v>223</v>
@@ -35194,13 +35189,13 @@
       </c>
       <c r="CI153" s="10"/>
       <c r="CJ153" s="10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="CK153" s="10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="CL153" s="10" t="s">
         <v>1214</v>
-      </c>
-      <c r="CK153" s="10" t="s">
-        <v>1215</v>
-      </c>
-      <c r="CL153" s="10" t="s">
-        <v>1216</v>
       </c>
       <c r="CM153" s="9" t="s">
         <v>123</v>
@@ -35271,7 +35266,7 @@
         <v>2</v>
       </c>
       <c r="V154" s="9" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="W154" s="10">
         <v>51</v>
@@ -35634,16 +35629,16 @@
         <v>5</v>
       </c>
       <c r="CI155" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="CJ155" s="10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="CK155" s="10" t="s">
         <v>1218</v>
       </c>
-      <c r="CJ155" s="10" t="s">
+      <c r="CL155" s="10" t="s">
         <v>1219</v>
-      </c>
-      <c r="CK155" s="10" t="s">
-        <v>1220</v>
-      </c>
-      <c r="CL155" s="10" t="s">
-        <v>1221</v>
       </c>
       <c r="CM155" s="9" t="s">
         <v>399</v>
@@ -35714,7 +35709,7 @@
         <v>2</v>
       </c>
       <c r="V156" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="W156" s="10">
         <v>41</v>
@@ -35723,7 +35718,7 @@
         <v>4</v>
       </c>
       <c r="Y156" s="9" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="Z156" s="10">
         <v>1</v>
@@ -35871,13 +35866,13 @@
         <v>418</v>
       </c>
       <c r="CJ156" s="10" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="CK156" s="10" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="CL156" s="10" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="CM156" s="9" t="s">
         <v>399</v>
@@ -36074,16 +36069,16 @@
         <v>1</v>
       </c>
       <c r="CI157" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="CJ157" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="CK157" s="10" t="s">
         <v>1226</v>
       </c>
-      <c r="CJ157" s="10" t="s">
+      <c r="CL157" s="10" t="s">
         <v>1227</v>
-      </c>
-      <c r="CK157" s="10" t="s">
-        <v>1228</v>
-      </c>
-      <c r="CL157" s="10" t="s">
-        <v>1229</v>
       </c>
       <c r="CM157" s="9" t="s">
         <v>223</v>
@@ -36298,16 +36293,16 @@
         <v>3</v>
       </c>
       <c r="CI158" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="CJ158" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="CK158" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="CL158" s="10" t="s">
         <v>1230</v>
-      </c>
-      <c r="CJ158" s="10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="CK158" s="10" t="s">
-        <v>1231</v>
-      </c>
-      <c r="CL158" s="10" t="s">
-        <v>1232</v>
       </c>
       <c r="CM158" s="9" t="s">
         <v>223</v>
@@ -36324,49 +36319,49 @@
         <v>385</v>
       </c>
       <c r="D159" s="10" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E159" s="1">
+        <v>3</v>
+      </c>
+      <c r="F159" s="1">
+        <v>3</v>
+      </c>
+      <c r="G159" s="1">
+        <v>3</v>
+      </c>
+      <c r="H159" s="1">
+        <v>3</v>
+      </c>
+      <c r="I159" s="1">
+        <v>3</v>
+      </c>
+      <c r="J159" s="1">
+        <v>3</v>
+      </c>
+      <c r="K159" s="1">
+        <v>3</v>
+      </c>
+      <c r="L159" s="1">
+        <v>2</v>
+      </c>
+      <c r="M159" s="1">
+        <v>2</v>
+      </c>
+      <c r="N159" s="1">
+        <v>2</v>
+      </c>
+      <c r="O159" s="1">
+        <v>2</v>
+      </c>
+      <c r="P159" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q159" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="R159" s="10" t="s">
         <v>1233</v>
-      </c>
-      <c r="E159" s="1">
-        <v>3</v>
-      </c>
-      <c r="F159" s="1">
-        <v>3</v>
-      </c>
-      <c r="G159" s="1">
-        <v>3</v>
-      </c>
-      <c r="H159" s="1">
-        <v>3</v>
-      </c>
-      <c r="I159" s="1">
-        <v>3</v>
-      </c>
-      <c r="J159" s="1">
-        <v>3</v>
-      </c>
-      <c r="K159" s="1">
-        <v>3</v>
-      </c>
-      <c r="L159" s="1">
-        <v>2</v>
-      </c>
-      <c r="M159" s="1">
-        <v>2</v>
-      </c>
-      <c r="N159" s="1">
-        <v>2</v>
-      </c>
-      <c r="O159" s="1">
-        <v>2</v>
-      </c>
-      <c r="P159" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q159" s="10" t="s">
-        <v>1234</v>
-      </c>
-      <c r="R159" s="10" t="s">
-        <v>1235</v>
       </c>
       <c r="S159" s="1">
         <v>2</v>
@@ -36378,7 +36373,7 @@
         <v>2</v>
       </c>
       <c r="V159" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="W159" s="10">
         <v>34</v>
@@ -36387,7 +36382,7 @@
         <v>4</v>
       </c>
       <c r="Y159" s="9" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="Z159" s="10"/>
       <c r="AA159" s="10">
@@ -36402,10 +36397,10 @@
         <v>4</v>
       </c>
       <c r="AF159" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AG159" s="9" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="AI159" s="10">
         <v>2</v>
@@ -36526,14 +36521,14 @@
         <v>1</v>
       </c>
       <c r="CI159" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="CJ159" s="10" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="CK159" s="10"/>
       <c r="CL159" s="10" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="CM159" s="9" t="s">
         <v>178</v>
@@ -36604,7 +36599,7 @@
         <v>1</v>
       </c>
       <c r="V160" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="W160" s="10">
         <v>27</v>
@@ -36744,19 +36739,19 @@
         <v>5</v>
       </c>
       <c r="CI160" s="10" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="CJ160" s="10" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="CK160" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="CL160" s="10" t="s">
         <v>434</v>
       </c>
       <c r="CM160" s="9" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="161" spans="1:92" s="1" customFormat="1">
@@ -38320,7 +38315,7 @@
         <v>392</v>
       </c>
       <c r="CN167" s="17" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="168" spans="1:92" s="1" customFormat="1">
@@ -41987,7 +41982,7 @@
         <v>531</v>
       </c>
       <c r="CM184" s="10" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="CN184" s="10" t="s">
         <v>414</v>
@@ -42433,10 +42428,10 @@
         <v>539</v>
       </c>
       <c r="CM186" s="10" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="CN186" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="187" spans="1:92" s="1" customFormat="1">
@@ -43618,7 +43613,7 @@
         <v>563</v>
       </c>
       <c r="CM192" s="10" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="193" spans="1:92" s="1" customFormat="1">
@@ -43834,7 +43829,7 @@
         <v>567</v>
       </c>
       <c r="CM193" s="10" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="194" spans="1:92" s="1" customFormat="1">
@@ -47299,6 +47294,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="AZ15:BA15"/>
+    <mergeCell ref="AZ14:BA14"/>
+    <mergeCell ref="AZ13:BA13"/>
+    <mergeCell ref="AZ12:BA12"/>
+    <mergeCell ref="AP12:AW12"/>
+    <mergeCell ref="BS11:BY11"/>
+    <mergeCell ref="AZ11:BA11"/>
+    <mergeCell ref="AP11:AW11"/>
+    <mergeCell ref="BS10:BY10"/>
+    <mergeCell ref="AZ10:BA10"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AP9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="AP10:AW10"/>
+    <mergeCell ref="AX10:AY10"/>
+    <mergeCell ref="BG9:BL9"/>
+    <mergeCell ref="BM9:BR9"/>
+    <mergeCell ref="BS9:BY9"/>
+    <mergeCell ref="BZ9:CH9"/>
+    <mergeCell ref="BZ8:CH8"/>
+    <mergeCell ref="BS8:BY8"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BG8:BL8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="AP8:AW8"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="Z8:AF8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AL7"/>
+    <mergeCell ref="AP7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BL7"/>
+    <mergeCell ref="BM7:BR7"/>
+    <mergeCell ref="BS7:BY7"/>
+    <mergeCell ref="BZ7:CH7"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="AP6:AW6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="BG6:BL6"/>
+    <mergeCell ref="BM6:BR6"/>
+    <mergeCell ref="BS6:BY6"/>
+    <mergeCell ref="BZ6:CH6"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="BZ1:CH1"/>
+    <mergeCell ref="AP5:AW5"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="BG5:BL5"/>
+    <mergeCell ref="BM5:BR5"/>
     <mergeCell ref="CM1:CN1"/>
     <mergeCell ref="BS5:BY5"/>
     <mergeCell ref="BZ5:CH5"/>
@@ -47315,72 +47376,6 @@
     <mergeCell ref="BG1:BL1"/>
     <mergeCell ref="BM1:BR1"/>
     <mergeCell ref="BS1:BY1"/>
-    <mergeCell ref="BZ1:CH1"/>
-    <mergeCell ref="AP5:AW5"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="BG5:BL5"/>
-    <mergeCell ref="BM5:BR5"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="BG7:BL7"/>
-    <mergeCell ref="BM7:BR7"/>
-    <mergeCell ref="BS7:BY7"/>
-    <mergeCell ref="BZ7:CH7"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="AP6:AW6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="BG6:BL6"/>
-    <mergeCell ref="BM6:BR6"/>
-    <mergeCell ref="BS6:BY6"/>
-    <mergeCell ref="BZ6:CH6"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AL7"/>
-    <mergeCell ref="AP7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AF7"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="AP8:AW8"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="Z8:AF8"/>
-    <mergeCell ref="BG9:BL9"/>
-    <mergeCell ref="BM9:BR9"/>
-    <mergeCell ref="BS9:BY9"/>
-    <mergeCell ref="BZ9:CH9"/>
-    <mergeCell ref="BZ8:CH8"/>
-    <mergeCell ref="BS8:BY8"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BG8:BL8"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AP9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="AP10:AW10"/>
-    <mergeCell ref="AX10:AY10"/>
-    <mergeCell ref="BS11:BY11"/>
-    <mergeCell ref="AZ11:BA11"/>
-    <mergeCell ref="AP11:AW11"/>
-    <mergeCell ref="BS10:BY10"/>
-    <mergeCell ref="AZ10:BA10"/>
-    <mergeCell ref="AZ15:BA15"/>
-    <mergeCell ref="AZ14:BA14"/>
-    <mergeCell ref="AZ13:BA13"/>
-    <mergeCell ref="AZ12:BA12"/>
-    <mergeCell ref="AP12:AW12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
